--- a/compare eigenvalues.xlsx
+++ b/compare eigenvalues.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stein\OneDrive\Documenten\GitHub\FD-SVV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043CE00-5921-4BDB-A981-B850273D5003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4043CE00-5921-4BDB-A981-B850273D5003}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5890E369-EF01-4309-A56D-DCB6BCDEE8B8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{2CD6684E-2D36-4CBA-AACA-CADC6C7B5991}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2CD6684E-2D36-4CBA-AACA-CADC6C7B5991}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="34">
   <si>
     <t>Analytical Model</t>
   </si>
@@ -126,6 +128,12 @@
   </si>
   <si>
     <t>Eigenfrequency</t>
+  </si>
+  <si>
+    <t>Validation data</t>
+  </si>
+  <si>
+    <t>note that half time is actually time to double, afterwards it stabilizes again</t>
   </si>
 </sst>
 </file>
@@ -133,8 +141,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,12 +169,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,12 +195,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -503,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1BEAE9-FA5F-4984-B1BD-DE817FC6A90D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:K49"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,10 +971,21 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1018,19 +1045,19 @@
         <v>-4.5345512422549916E-2</v>
       </c>
       <c r="J22">
-        <f>J13-J4</f>
+        <f t="shared" ref="J22:M24" si="6">J13-J4</f>
         <v>4.6000000000000263E-2</v>
       </c>
       <c r="K22">
-        <f>K13-K4</f>
+        <f t="shared" si="6"/>
         <v>-4.3999999999999984E-2</v>
       </c>
       <c r="L22">
-        <f>L13-L4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>M13-M4</f>
+        <f t="shared" si="6"/>
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
@@ -1039,43 +1066,43 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:E26" si="6">C14-C5</f>
+        <f t="shared" ref="C23:E26" si="7">C14-C5</f>
         <v>-3.8400000000000001E-3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="7"/>
+        <v>0.127</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>0.12705764545580159</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:H23" si="8">F14-F5</f>
+        <v>2.3989197335796573E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>-6.6911371481355453E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>-6.7789873149149693E-3</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="6"/>
-        <v>0.127</v>
-      </c>
-      <c r="E23">
+        <v>-0.52000000000000313</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="6"/>
-        <v>0.12705764545580159</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23:H23" si="7">F14-F5</f>
-        <v>2.3989197335796573E-3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="7"/>
-        <v>-6.6911371481355453E-3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="7"/>
-        <v>-6.7789873149149693E-3</v>
-      </c>
-      <c r="J23">
-        <f>J14-J5</f>
-        <v>-0.52000000000000313</v>
-      </c>
-      <c r="K23">
-        <f>K14-K5</f>
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="L23">
-        <f>L14-L5</f>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="M23">
-        <f>M14-M5</f>
+        <f t="shared" si="6"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
@@ -1084,43 +1111,43 @@
         <v>10</v>
       </c>
       <c r="C24">
+        <f t="shared" si="7"/>
+        <v>-0.27657999999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>1.8428517526142771</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:H24" si="9">F15-F6</f>
+        <v>-2.2694940607127123E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>4.9098108227010329E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>8.1107956976569362E-3</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="6"/>
-        <v>-0.27657999999999999</v>
-      </c>
-      <c r="D24">
+        <v>-7.0000000000001172E-3</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="6"/>
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="E24">
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>1.8428517526142771</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24:H24" si="8">F15-F6</f>
-        <v>-2.2694940607127123E-2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="8"/>
-        <v>4.9098108227010329E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="8"/>
-        <v>8.1107956976569362E-3</v>
-      </c>
-      <c r="J24">
-        <f>J15-J6</f>
-        <v>-7.0000000000001172E-3</v>
-      </c>
-      <c r="K24">
-        <f>K15-K6</f>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="L24">
-        <f>L15-L6</f>
         <v>-0.15799999999999992</v>
       </c>
       <c r="M24">
-        <f>M15-M6</f>
+        <f t="shared" si="6"/>
         <v>4.9999999999998934E-3</v>
       </c>
     </row>
@@ -1129,19 +1156,19 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0800000000000013E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0800000000000013E-3</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:H25" si="9">F16-F7</f>
+        <f t="shared" ref="F25" si="10">F16-F7</f>
         <v>-4.3016152347432474E-4</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="10">H16-H7</f>
+        <f t="shared" ref="H25" si="11">H16-H7</f>
         <v>-4.3016152347432474E-4</v>
       </c>
       <c r="K25">
@@ -1158,19 +1185,19 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.7801400000000003</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7801400000000003</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:H26" si="11">F17-F8</f>
+        <f t="shared" ref="F26" si="12">F17-F8</f>
         <v>-0.22857700961598937</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="12">H17-H8</f>
+        <f t="shared" ref="H26" si="13">H17-H8</f>
         <v>0.22857700961598937</v>
       </c>
       <c r="K26">
@@ -1226,11 +1253,11 @@
         <v>4194.4587628865975</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:E31" si="13">D22/D4*100</f>
+        <f t="shared" ref="D31:E31" si="14">D22/D4*100</f>
         <v>4100</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4123.0115779639573</v>
       </c>
       <c r="F31">
@@ -1238,27 +1265,27 @@
         <v>-8.2382909051158092E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:H31" si="14">G22/G4*100</f>
+        <f t="shared" ref="G31:H31" si="15">G22/G4*100</f>
         <v>-2.2076069730586267</v>
       </c>
       <c r="H31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.6718076215297588</v>
       </c>
       <c r="J31">
-        <f>J22/J4*100</f>
+        <f t="shared" ref="J31:M33" si="16">J22/J4*100</f>
         <v>1.7202692595362852</v>
       </c>
       <c r="K31">
-        <f>K22/K4*100</f>
+        <f t="shared" si="16"/>
         <v>-8.9068825910931135</v>
       </c>
       <c r="L31">
-        <f>L22/L4*100</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>M22/M4*100</f>
+        <f t="shared" si="16"/>
         <v>-1.7021276595744694</v>
       </c>
     </row>
@@ -1267,43 +1294,43 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:E32" si="15">C23/C5*100</f>
+        <f t="shared" ref="C32:E32" si="17">C23/C5*100</f>
         <v>2742.8571428571431</v>
       </c>
       <c r="D32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4233.3333333333339</v>
       </c>
       <c r="E32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4230.6506454156679</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:H32" si="16">F23/F5*100</f>
+        <f t="shared" ref="F32:H32" si="18">F23/F5*100</f>
         <v>-37.606990427412953</v>
       </c>
       <c r="G32">
+        <f t="shared" si="18"/>
+        <v>-4.8950775359226073</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="18"/>
+        <v>-4.9539552650929704</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="16"/>
-        <v>-4.8950775359226073</v>
-      </c>
-      <c r="H32">
+        <v>-1.0599266204647435</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="16"/>
-        <v>-4.9539552650929704</v>
-      </c>
-      <c r="J32">
-        <f>J23/J5*100</f>
-        <v>-1.0599266204647435</v>
-      </c>
-      <c r="K32">
-        <f>K23/K5*100</f>
         <v>-35.416666666666671</v>
       </c>
       <c r="L32">
-        <f>L23/L5*100</f>
+        <f t="shared" si="16"/>
         <v>54.618117229129673</v>
       </c>
       <c r="M32">
-        <f>M23/M5*100</f>
+        <f t="shared" si="16"/>
         <v>0.78125000000000067</v>
       </c>
     </row>
@@ -1312,43 +1339,43 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:E33" si="17">C24/C6*100</f>
+        <f t="shared" ref="C33:E33" si="19">C24/C6*100</f>
         <v>552.9388244702119</v>
       </c>
       <c r="D33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>508.9385474860336</v>
       </c>
       <c r="E33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>509.81088171674378</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:H33" si="18">F24/F6*100</f>
+        <f t="shared" ref="F33:H33" si="20">F24/F6*100</f>
         <v>7.4677732093259648</v>
       </c>
       <c r="G33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.22572906848327556</v>
       </c>
       <c r="H33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.36930732383478554</v>
       </c>
       <c r="J33">
-        <f>J24/J6*100</f>
+        <f t="shared" si="16"/>
         <v>-0.2425502425502466</v>
       </c>
       <c r="K33">
-        <f>K24/K6*100</f>
+        <f t="shared" si="16"/>
         <v>7.2463768115941889</v>
       </c>
       <c r="L33">
-        <f>L24/L6*100</f>
+        <f t="shared" si="16"/>
         <v>-6.929824561403505</v>
       </c>
       <c r="M33">
-        <f>M24/M6*100</f>
+        <f t="shared" si="16"/>
         <v>0.22967386311437266</v>
       </c>
     </row>
@@ -1357,19 +1384,19 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:E34" si="19">C25/C7*100</f>
+        <f t="shared" ref="C34:E34" si="21">C25/C7*100</f>
         <v>449.50495049504957</v>
       </c>
       <c r="E34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>449.50495049504957</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:H34" si="20">F25/F7*100</f>
+        <f t="shared" ref="F34" si="22">F25/F7*100</f>
         <v>-3.7307501945966353</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="21">H25/H7*100</f>
+        <f t="shared" ref="H34" si="23">H25/H7*100</f>
         <v>-3.7307501945966353</v>
       </c>
       <c r="K34">
@@ -1386,19 +1413,19 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:E35" si="22">C26/C8*100</f>
+        <f t="shared" ref="C35:E35" si="24">C26/C8*100</f>
         <v>502.10397683500253</v>
       </c>
       <c r="E35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>502.10397683500253</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:H35" si="23">F26/F8*100</f>
+        <f t="shared" ref="F35" si="25">F26/F8*100</f>
         <v>5.3102822405378269</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="24">H26/H8*100</f>
+        <f t="shared" ref="H35" si="26">H26/H8*100</f>
         <v>5.3102822405378269</v>
       </c>
       <c r="K35">
@@ -1448,27 +1475,27 @@
         <v>1.0982546550653005E-4</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:L40" si="25">G22</f>
+        <f t="shared" ref="E40:K40" si="27">G22</f>
         <v>-5.2146920122514206E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4.5345512422549916E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.6000000000000263E-2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4.3999999999999984E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
@@ -1481,27 +1508,27 @@
         <v>-8.2382909051158092E-3</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:K41" si="26">G31</f>
+        <f t="shared" ref="E41:K41" si="28">G31</f>
         <v>-2.2076069730586267</v>
       </c>
       <c r="F41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.6718076215297588</v>
       </c>
       <c r="H41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.7202692595362852</v>
       </c>
       <c r="I41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-8.9068825910931135</v>
       </c>
       <c r="J41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.7021276595744694</v>
       </c>
     </row>
@@ -1517,28 +1544,28 @@
         <v>2.3989197335796573E-3</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" ref="E42:K42" si="27">G23</f>
+        <f t="shared" ref="E42:K42" si="29">G23</f>
         <v>-6.6911371481355453E-3</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-6.7789873149149693E-3</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.52000000000000313</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>61.5</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
@@ -1551,28 +1578,28 @@
         <v>-37.606990427412953</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:K43" si="28">G32</f>
+        <f t="shared" ref="E43:K43" si="30">G32</f>
         <v>-4.8950775359226073</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.9539552650929704</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-1.0599266204647435</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-35.416666666666671</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>54.618117229129673</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.78125000000000067</v>
       </c>
     </row>
@@ -1588,28 +1615,28 @@
         <v>-2.2694940607127123E-2</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" ref="E44:K44" si="29">G24</f>
+        <f t="shared" ref="E44:K44" si="31">G24</f>
         <v>4.9098108227010329E-3</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.1107956976569362E-3</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999811E-3</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.15799999999999992</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999998934E-3</v>
       </c>
     </row>
@@ -1622,28 +1649,28 @@
         <v>7.4677732093259648</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ref="E45:K45" si="30">G33</f>
+        <f t="shared" ref="E45:K45" si="32">G33</f>
         <v>0.22572906848327556</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.36930732383478554</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-0.2425502425502466</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.2463768115941889</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-6.929824561403505</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.22967386311437266</v>
       </c>
     </row>
@@ -1659,27 +1686,27 @@
         <v>-4.3016152347432474E-4</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:K46" si="31">G25</f>
+        <f t="shared" ref="E46:K46" si="33">G25</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-4.3016152347432474E-4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.3200000000000003</v>
       </c>
       <c r="K46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -1692,27 +1719,27 @@
         <v>-3.7307501945966353</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:K47" si="32">G34</f>
+        <f t="shared" ref="E47:K47" si="34">G34</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-3.7307501945966353</v>
       </c>
       <c r="H47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.8583070014967573</v>
       </c>
       <c r="K47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -1728,27 +1755,27 @@
         <v>-0.22857700961598937</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:K48" si="33">G26</f>
+        <f t="shared" ref="E48:K48" si="35">G26</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.22857700961598937</v>
       </c>
       <c r="H48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-8.0999999999999961E-3</v>
       </c>
       <c r="K48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -1761,27 +1788,1201 @@
         <v>5.3102822405378269</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:K49" si="34">G35</f>
+        <f t="shared" ref="E49:K49" si="36">G35</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.3102822405378269</v>
       </c>
       <c r="H49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-5.0310559006211157</v>
       </c>
       <c r="K49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD4C52-0ED4-4CEC-9A8C-9DDCED88166C}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1">
+        <v>2.0569000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>15.911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>88.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>105</v>
+      </c>
+      <c r="P5">
+        <v>93.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>2.95</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>96.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>90.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>90.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>-1.333</v>
+      </c>
+      <c r="D13">
+        <v>2.31</v>
+      </c>
+      <c r="E13">
+        <f>SQRT(C13^2+D13^2)</f>
+        <v>2.6670187475906499</v>
+      </c>
+      <c r="F13">
+        <v>-1.333</v>
+      </c>
+      <c r="G13">
+        <v>2.31</v>
+      </c>
+      <c r="H13">
+        <f>SQRT(F13^2+G13^2)</f>
+        <v>2.6670187475906499</v>
+      </c>
+      <c r="J13">
+        <v>2.72</v>
+      </c>
+      <c r="K13">
+        <v>0.45</v>
+      </c>
+      <c r="L13">
+        <v>0.52</v>
+      </c>
+      <c r="M13">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>-3.98E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E17" si="0">SQRT(C14^2+D14^2)</f>
+        <v>0.13006091034588371</v>
+      </c>
+      <c r="F14">
+        <v>-3.98E-3</v>
+      </c>
+      <c r="G14">
+        <v>0.13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="1">SQRT(F14^2+G14^2)</f>
+        <v>0.13006091034588371</v>
+      </c>
+      <c r="J14">
+        <v>48.54</v>
+      </c>
+      <c r="K14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L14">
+        <v>174.1</v>
+      </c>
+      <c r="M14">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>-0.3266</v>
+      </c>
+      <c r="D15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.2043292766735192</v>
+      </c>
+      <c r="F15">
+        <v>-0.3266</v>
+      </c>
+      <c r="G15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.2043292766735192</v>
+      </c>
+      <c r="J15">
+        <v>2.879</v>
+      </c>
+      <c r="K15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L15">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="M15">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.11E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>62.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>-4.5330000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="F17">
+        <v>-4.5330000000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <f>C13-C4</f>
+        <v>-1.333</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:E22" si="2">D13-D4</f>
+        <v>2.31</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>2.6670187475906499</v>
+      </c>
+      <c r="F22">
+        <f>F13-F4</f>
+        <v>-1.333</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:H22" si="3">G13-G4</f>
+        <v>2.31</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.6670187475906499</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:M24" si="4">J13-J4</f>
+        <v>2.72</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:H26" si="5">C14-C5</f>
+        <v>-3.98E-3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>0.13</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>0.13006091034588371</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>-3.98E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0.13</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>0.13006091034588371</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>-1.4600000000000009</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>-0.3266</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>2.2043292766735192</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-0.3266</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>2.2043292766735192</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>-7.1000000000000174E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0.12199999999999989</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="K25">
+        <f>K16-K7</f>
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <f>L16-L7</f>
+        <v>62.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>-4.5330000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>-4.5330000000000004</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="K26">
+        <f>K17-K8</f>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>L17-L8</f>
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="e">
+        <f>C22/C4*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" ref="D31:E31" si="6">D22/D4*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>F22/F4*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" ref="G31:H31" si="7">G22/G4*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" ref="J31:M33" si="8">J22/J4*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" ref="C32:H35" si="9">C23/C5*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>-2.9200000000000017</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>65.80952380952381</v>
+      </c>
+      <c r="M32" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>-2.4067796610169547</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="M33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" t="e">
+        <f>K25/K7*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" t="e">
+        <f>L25/L7*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" t="e">
+        <f>K26/K8*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" t="e">
+        <f>L26/L8*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <f>F22</f>
+        <v>-1.333</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:K40" si="10">G22</f>
+        <v>2.31</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>2.6670187475906499</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>2.72</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="10"/>
+        <v>0.52</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="10"/>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="e">
+        <f>F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" ref="E41:K41" si="11">G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3">
+        <f>F23</f>
+        <v>-3.98E-3</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ref="E42:K42" si="12">G23</f>
+        <v>0.13</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="12"/>
+        <v>0.13006091034588371</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.4600000000000009</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="12"/>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="12"/>
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="e">
+        <f>F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="4" t="e">
+        <f t="shared" ref="E43:K43" si="13">G32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <f t="shared" si="13"/>
+        <v>-2.9200000000000017</v>
+      </c>
+      <c r="I43" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="13"/>
+        <v>65.80952380952381</v>
+      </c>
+      <c r="K43" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3">
+        <f>F24</f>
+        <v>-0.3266</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ref="E44:K44" si="14">G24</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="14"/>
+        <v>2.2043292766735192</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <f t="shared" si="14"/>
+        <v>-7.1000000000000174E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="14"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="14"/>
+        <v>0.12199999999999989</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4" t="e">
+        <f>F33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="4" t="e">
+        <f t="shared" ref="E45:K45" si="15">G33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
+        <f t="shared" si="15"/>
+        <v>-2.4067796610169547</v>
+      </c>
+      <c r="I45" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="15"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="K45" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <f>F25</f>
+        <v>1.11E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:K46" si="16">G25</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="16"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="16"/>
+        <v>62.45</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="e">
+        <f>F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:K47" si="17">G34</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <f>F26</f>
+        <v>-4.5330000000000004</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:K48" si="18">G26</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="18"/>
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="18"/>
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="e">
+        <f>F35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:K49" si="19">G35</f>
+        <v>0</v>
+      </c>
+      <c r="F49" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
